--- a/Wiring Harness Color Code.xlsx
+++ b/Wiring Harness Color Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Color Code" sheetId="1" r:id="rId1"/>
@@ -341,39 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,14 +382,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,103 +469,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,246 +837,256 @@
   <sheetData>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="22">
-        <v>6</v>
-      </c>
-      <c r="H6" s="51" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="19">
-        <v>6</v>
-      </c>
-      <c r="H7" s="50" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="8">
+        <v>6</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="22">
-        <v>6</v>
-      </c>
-      <c r="H10" s="51" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="11">
+        <v>6</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="15">
-        <v>6</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="15">
-        <v>6</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="15">
-        <v>6</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="49">
-        <v>6</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="25">
+        <v>6</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45" t="s">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="62">
+      <c r="F17" s="50"/>
+      <c r="G17" s="28">
         <v>1</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="49">
+      <c r="F18" s="52"/>
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="55"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C15:H15"/>
@@ -1093,16 +1103,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,28 +1138,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
@@ -1170,23 +1170,23 @@
       </c>
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="10">
         <f>SUMIF(M3:M11,D4,N3:N11)</f>
         <v>12</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="11">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11">
+        <f>E4-F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="22">
-        <f>E4-F4</f>
-        <v>12</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="H4" s="12">
         <f>F4/E4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -1196,23 +1196,23 @@
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="5">
         <f>SUMIF(M4:M12,D5,N4:N12)</f>
         <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G9" si="0">E5-F5</f>
-        <v>12</v>
-      </c>
-      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" ref="H5:H9" si="1">F5/E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -1222,10 +1222,10 @@
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="5">
         <f>SUMIF(M5:M13,D6,N5:N13)</f>
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1248,23 +1248,23 @@
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="5">
         <f>SUMIF(M6:M14,D7,N6:N14)</f>
         <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
@@ -1274,23 +1274,23 @@
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="5">
         <f>SUMIF(M8:M16,D8,N8:N16)</f>
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1300,23 +1300,23 @@
       </c>
     </row>
     <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="7">
         <f>SUMIF(M10:M18,D9,N10:N18)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="19">
-        <f t="shared" si="0"/>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>4</v>
@@ -1372,12 +1372,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
